--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N2">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q2">
-        <v>2.364478590696444</v>
+        <v>113.2961360102778</v>
       </c>
       <c r="R2">
-        <v>21.280307316268</v>
+        <v>1019.6652240925</v>
       </c>
       <c r="S2">
-        <v>2.010947896502065E-05</v>
+        <v>0.0004372348566817978</v>
       </c>
       <c r="T2">
-        <v>2.010947896502065E-05</v>
+        <v>0.0004372348566817978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P3">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q3">
-        <v>563.92777934559</v>
+        <v>1288.65796037541</v>
       </c>
       <c r="R3">
-        <v>5075.35001411031</v>
+        <v>11597.92164337869</v>
       </c>
       <c r="S3">
-        <v>0.004796107632846329</v>
+        <v>0.004973216196583145</v>
       </c>
       <c r="T3">
-        <v>0.00479610763284633</v>
+        <v>0.004973216196583145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N4">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q4">
-        <v>269.4916767282202</v>
+        <v>523.2394699517514</v>
       </c>
       <c r="R4">
-        <v>2425.425090553982</v>
+        <v>4709.155229565762</v>
       </c>
       <c r="S4">
-        <v>0.002291979815650627</v>
+        <v>0.002019296886116751</v>
       </c>
       <c r="T4">
-        <v>0.002291979815650627</v>
+        <v>0.002019296886116751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H5">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I5">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J5">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N5">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O5">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P5">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q5">
-        <v>363.72168646946</v>
+        <v>1078.891526882737</v>
       </c>
       <c r="R5">
-        <v>3273.49517822514</v>
+        <v>9710.023741944635</v>
       </c>
       <c r="S5">
-        <v>0.00309338965129943</v>
+        <v>0.00416368111697107</v>
       </c>
       <c r="T5">
-        <v>0.00309338965129943</v>
+        <v>0.00416368111697107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H6">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I6">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J6">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N6">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O6">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P6">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q6">
-        <v>74.09738679157833</v>
+        <v>192.8640383620861</v>
       </c>
       <c r="R6">
-        <v>666.8764811242049</v>
+        <v>1735.776345258775</v>
       </c>
       <c r="S6">
-        <v>0.00063018538079017</v>
+        <v>0.0007443049969918629</v>
       </c>
       <c r="T6">
-        <v>0.0006301853807901701</v>
+        <v>0.0007443049969918629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H7">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I7">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J7">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N7">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q7">
-        <v>286.7224856165108</v>
+        <v>997.2073788198185</v>
       </c>
       <c r="R7">
-        <v>2580.502370548597</v>
+        <v>8974.866409378366</v>
       </c>
       <c r="S7">
-        <v>0.002438524846869247</v>
+        <v>0.00384844391622289</v>
       </c>
       <c r="T7">
-        <v>0.002438524846869247</v>
+        <v>0.00384844391622289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N8">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q8">
-        <v>14.86703799146222</v>
+        <v>311.7381770305556</v>
       </c>
       <c r="R8">
-        <v>133.80334192316</v>
+        <v>2805.643593275</v>
       </c>
       <c r="S8">
-        <v>0.0001264415710668004</v>
+        <v>0.00120306660011631</v>
       </c>
       <c r="T8">
-        <v>0.0001264415710668004</v>
+        <v>0.00120306660011631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>111.38229</v>
       </c>
       <c r="O9">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P9">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q9">
-        <v>3545.786268888301</v>
+        <v>3545.7862688883</v>
       </c>
       <c r="R9">
         <v>31912.0764199947</v>
       </c>
       <c r="S9">
-        <v>0.03015629520572912</v>
+        <v>0.01368397374965216</v>
       </c>
       <c r="T9">
-        <v>0.03015629520572912</v>
+        <v>0.01368397374965216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N10">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q10">
-        <v>1694.472097174371</v>
+        <v>1439.711222794007</v>
       </c>
       <c r="R10">
-        <v>15250.24887456934</v>
+        <v>12957.40100514606</v>
       </c>
       <c r="S10">
-        <v>0.01441119032712656</v>
+        <v>0.005556164158188134</v>
       </c>
       <c r="T10">
-        <v>0.01441119032712656</v>
+        <v>0.005556164158188134</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N11">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O11">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P11">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q11">
-        <v>2286.9583815802</v>
+        <v>2968.606782614603</v>
       </c>
       <c r="R11">
-        <v>20582.6254342218</v>
+        <v>26717.46104353142</v>
       </c>
       <c r="S11">
-        <v>0.0194501830759731</v>
+        <v>0.01145651040582144</v>
       </c>
       <c r="T11">
-        <v>0.0194501830759731</v>
+        <v>0.01145651040582144</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N12">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O12">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P12">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q12">
-        <v>465.8991918273167</v>
+        <v>530.6719703864723</v>
       </c>
       <c r="R12">
-        <v>4193.09272644585</v>
+        <v>4776.047733478251</v>
       </c>
       <c r="S12">
-        <v>0.003962391554203906</v>
+        <v>0.002047980549803814</v>
       </c>
       <c r="T12">
-        <v>0.003962391554203907</v>
+        <v>0.002047980549803814</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N13">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q13">
-        <v>1802.813568894099</v>
+        <v>2743.850067106509</v>
       </c>
       <c r="R13">
-        <v>16225.32212004689</v>
+        <v>24694.65060395858</v>
       </c>
       <c r="S13">
-        <v>0.0153326156913315</v>
+        <v>0.01058912451117329</v>
       </c>
       <c r="T13">
-        <v>0.0153326156913315</v>
+        <v>0.01058912451117329</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H14">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I14">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J14">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N14">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q14">
-        <v>62.59382249613421</v>
+        <v>3355.994729952222</v>
       </c>
       <c r="R14">
-        <v>563.3444024652078</v>
+        <v>30203.95256957</v>
       </c>
       <c r="S14">
-        <v>0.0005323495682215061</v>
+        <v>0.01295152620776418</v>
       </c>
       <c r="T14">
-        <v>0.0005323495682215061</v>
+        <v>0.01295152620776419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H15">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I15">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J15">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>111.38229</v>
       </c>
       <c r="O15">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P15">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q15">
-        <v>14928.61701513654</v>
+        <v>38171.90485065203</v>
       </c>
       <c r="R15">
-        <v>134357.5531362288</v>
+        <v>343547.1436558684</v>
       </c>
       <c r="S15">
-        <v>0.12696528994763</v>
+        <v>0.1473138267057228</v>
       </c>
       <c r="T15">
-        <v>0.12696528994763</v>
+        <v>0.1473138267057229</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H16">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I16">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J16">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N16">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q16">
-        <v>7134.136990575699</v>
+        <v>15499.10672595026</v>
       </c>
       <c r="R16">
-        <v>64207.23291518129</v>
+        <v>139491.9605335523</v>
       </c>
       <c r="S16">
-        <v>0.06067459367576734</v>
+        <v>0.05981448217617932</v>
       </c>
       <c r="T16">
-        <v>0.06067459367576734</v>
+        <v>0.05981448217617934</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H17">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I17">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J17">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N17">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O17">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P17">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q17">
-        <v>9628.647419538758</v>
+        <v>31958.32096233283</v>
       </c>
       <c r="R17">
-        <v>86657.82677584882</v>
+        <v>287624.8886609955</v>
       </c>
       <c r="S17">
-        <v>0.0818899707980791</v>
+        <v>0.1233342316677851</v>
       </c>
       <c r="T17">
-        <v>0.0818899707980791</v>
+        <v>0.1233342316677851</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H18">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I18">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J18">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N18">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O18">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P18">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q18">
-        <v>1961.548180012636</v>
+        <v>5712.910599896788</v>
       </c>
       <c r="R18">
-        <v>17653.93362011373</v>
+        <v>51416.1953990711</v>
       </c>
       <c r="S18">
-        <v>0.01668262593708668</v>
+        <v>0.0220473860393191</v>
       </c>
       <c r="T18">
-        <v>0.01668262593708668</v>
+        <v>0.0220473860393191</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H19">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I19">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J19">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N19">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q19">
-        <v>7590.280766739386</v>
+        <v>29538.71884637961</v>
       </c>
       <c r="R19">
-        <v>68312.52690065447</v>
+        <v>265848.4696174165</v>
       </c>
       <c r="S19">
-        <v>0.06455401711731643</v>
+        <v>0.113996451742971</v>
       </c>
       <c r="T19">
-        <v>0.06455401711731643</v>
+        <v>0.113996451742971</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H20">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N20">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q20">
-        <v>5.78237938925111</v>
+        <v>156.1581054483333</v>
       </c>
       <c r="R20">
-        <v>52.04141450326</v>
+        <v>1405.422949035</v>
       </c>
       <c r="S20">
-        <v>4.91781304992338E-05</v>
+        <v>0.0006026486803504861</v>
       </c>
       <c r="T20">
-        <v>4.917813049923381E-05</v>
+        <v>0.0006026486803504861</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H21">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>111.38229</v>
       </c>
       <c r="O21">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P21">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q21">
-        <v>1379.09659285755</v>
+        <v>1776.18048372702</v>
       </c>
       <c r="R21">
-        <v>12411.86933571795</v>
+        <v>15985.62435354318</v>
       </c>
       <c r="S21">
-        <v>0.01172897654219486</v>
+        <v>0.006854673483065115</v>
       </c>
       <c r="T21">
-        <v>0.01172897654219486</v>
+        <v>0.006854673483065115</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H22">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N22">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q22">
-        <v>659.0472517786656</v>
+        <v>721.1903883115961</v>
       </c>
       <c r="R22">
-        <v>5931.42526600799</v>
+        <v>6490.713494804364</v>
       </c>
       <c r="S22">
-        <v>0.005605082193911561</v>
+        <v>0.00278323327853922</v>
       </c>
       <c r="T22">
-        <v>0.005605082193911563</v>
+        <v>0.00278323327853922</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H23">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N23">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O23">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P23">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q23">
-        <v>889.4886134896999</v>
+        <v>1487.055629213906</v>
       </c>
       <c r="R23">
-        <v>8005.3975214073</v>
+        <v>13383.50066292515</v>
       </c>
       <c r="S23">
-        <v>0.007564945875584325</v>
+        <v>0.005738876697950402</v>
       </c>
       <c r="T23">
-        <v>0.007564945875584326</v>
+        <v>0.005738876697950402</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H24">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N24">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O24">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P24">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q24">
-        <v>181.2066321373583</v>
+        <v>265.8279787847833</v>
       </c>
       <c r="R24">
-        <v>1630.859689236225</v>
+        <v>2392.45180906305</v>
       </c>
       <c r="S24">
-        <v>0.001541130874107483</v>
+        <v>0.001025888987029821</v>
       </c>
       <c r="T24">
-        <v>0.001541130874107484</v>
+        <v>0.001025888987029821</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H25">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N25">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q25">
-        <v>701.1855373896294</v>
+        <v>1374.468896286761</v>
       </c>
       <c r="R25">
-        <v>6310.669836506665</v>
+        <v>12370.22006658085</v>
       </c>
       <c r="S25">
-        <v>0.005963460980443995</v>
+        <v>0.005304379584728411</v>
       </c>
       <c r="T25">
-        <v>0.005963460980443995</v>
+        <v>0.005304379584728411</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H26">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N26">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q26">
-        <v>62.64873854099466</v>
+        <v>1397.8279741675</v>
       </c>
       <c r="R26">
-        <v>563.838646868952</v>
+        <v>12580.4517675075</v>
       </c>
       <c r="S26">
-        <v>0.0005328166196269654</v>
+        <v>0.005394527434682246</v>
       </c>
       <c r="T26">
-        <v>0.0005328166196269655</v>
+        <v>0.005394527434682246</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H27">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>111.38229</v>
       </c>
       <c r="O27">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P27">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q27">
-        <v>14941.71448336926</v>
+        <v>15899.23725185979</v>
       </c>
       <c r="R27">
-        <v>134475.4303503234</v>
+        <v>143093.1352667381</v>
       </c>
       <c r="S27">
-        <v>0.1270766816358259</v>
+        <v>0.06135867440824447</v>
       </c>
       <c r="T27">
-        <v>0.127076681635826</v>
+        <v>0.06135867440824447</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H28">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N28">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q28">
-        <v>7140.396052115506</v>
+        <v>6455.637359254543</v>
       </c>
       <c r="R28">
-        <v>64263.56446903955</v>
+        <v>58100.73623329088</v>
       </c>
       <c r="S28">
-        <v>0.06072782590500838</v>
+        <v>0.02491373293884675</v>
       </c>
       <c r="T28">
-        <v>0.06072782590500839</v>
+        <v>0.02491373293884675</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H29">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N29">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O29">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P29">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q29">
-        <v>9637.095014086439</v>
+        <v>13311.1755658831</v>
       </c>
       <c r="R29">
-        <v>86733.85512677795</v>
+        <v>119800.5800929479</v>
       </c>
       <c r="S29">
-        <v>0.08196181611971998</v>
+        <v>0.05137077172947157</v>
       </c>
       <c r="T29">
-        <v>0.08196181611971999</v>
+        <v>0.05137077172947157</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H30">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N30">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O30">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P30">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q30">
-        <v>1963.26912408593</v>
+        <v>2379.522881601025</v>
       </c>
       <c r="R30">
-        <v>17669.42211677337</v>
+        <v>21415.70593440923</v>
       </c>
       <c r="S30">
-        <v>0.01669726226696424</v>
+        <v>0.009183105291547637</v>
       </c>
       <c r="T30">
-        <v>0.01669726226696424</v>
+        <v>0.009183105291547637</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H31">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N31">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q31">
-        <v>7596.940021318629</v>
+        <v>12303.37078780991</v>
       </c>
       <c r="R31">
-        <v>68372.46019186765</v>
+        <v>110730.3370902892</v>
       </c>
       <c r="S31">
-        <v>0.06461065291871929</v>
+        <v>0.04748143010475731</v>
       </c>
       <c r="T31">
-        <v>0.06461065291871929</v>
+        <v>0.04748143010475731</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H32">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N32">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O32">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P32">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q32">
-        <v>29.92181776466711</v>
+        <v>1664.545627513334</v>
       </c>
       <c r="R32">
-        <v>269.296359882004</v>
+        <v>14980.91064762</v>
       </c>
       <c r="S32">
-        <v>0.0002544798533179035</v>
+        <v>0.006423849872691885</v>
       </c>
       <c r="T32">
-        <v>0.0002544798533179035</v>
+        <v>0.006423849872691886</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H33">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>111.38229</v>
       </c>
       <c r="O33">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P33">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q33">
-        <v>7136.34892377777</v>
+        <v>18932.94907346664</v>
       </c>
       <c r="R33">
-        <v>64227.14031399993</v>
+        <v>170396.5416611998</v>
       </c>
       <c r="S33">
-        <v>0.0606934057827469</v>
+        <v>0.07306643956462912</v>
       </c>
       <c r="T33">
-        <v>0.06069340578274691</v>
+        <v>0.07306643956462913</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H34">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N34">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O34">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P34">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q34">
-        <v>3410.342082133749</v>
+        <v>7687.428737830674</v>
       </c>
       <c r="R34">
-        <v>30693.07873920374</v>
+        <v>69186.85864047606</v>
       </c>
       <c r="S34">
-        <v>0.02900436596636446</v>
+        <v>0.02966748841400921</v>
       </c>
       <c r="T34">
-        <v>0.02900436596636446</v>
+        <v>0.02966748841400921</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H35">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N35">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O35">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P35">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q35">
-        <v>4602.796600662379</v>
+        <v>15851.06285946884</v>
       </c>
       <c r="R35">
-        <v>41425.16940596141</v>
+        <v>142659.5657352196</v>
       </c>
       <c r="S35">
-        <v>0.03914598414444754</v>
+        <v>0.06117275876897783</v>
       </c>
       <c r="T35">
-        <v>0.03914598414444754</v>
+        <v>0.06117275876897784</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H36">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N36">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O36">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P36">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q36">
-        <v>937.6817845335681</v>
+        <v>2833.556404174734</v>
       </c>
       <c r="R36">
-        <v>8439.136060802113</v>
+        <v>25502.00763757261</v>
       </c>
       <c r="S36">
-        <v>0.007974820409097803</v>
+        <v>0.01093532111427648</v>
       </c>
       <c r="T36">
-        <v>0.007974820409097805</v>
+        <v>0.01093532111427648</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H37">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N37">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O37">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P37">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q37">
-        <v>3628.393167697343</v>
+        <v>14650.96022328583</v>
       </c>
       <c r="R37">
-        <v>32655.53850927609</v>
+        <v>131858.6420095725</v>
       </c>
       <c r="S37">
-        <v>0.03085885250546629</v>
+        <v>0.05654129716213782</v>
       </c>
       <c r="T37">
-        <v>0.03085885250546629</v>
+        <v>0.05654129716213783</v>
       </c>
     </row>
   </sheetData>
